--- a/biology/Médecine/Richard_Frey/Richard_Frey.xlsx
+++ b/biology/Médecine/Richard_Frey/Richard_Frey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Frey, de son nom chinois Fu Lai (傅 莱), né le 11 février 1920 à Vienne et décédé à 84 ans le 16 novembre 2004 à Pékin, est un médecin autrichien juif qui émigra en Chine à 19 ans en 1939 pour fuir les persécutions nazies et passa le reste de sa vie dans ce pays. En raison de sa contribution exceptionnelle à l'indépendance, la libération et la construction de la Chine, il bénéficie d'une grande renommée chez les Chinois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils unique d'une famille juive de moyenne classe de Vienne, Richard Frey est né sous le nom de Richard Stein en 1920. En 1930, il entre au collège Döblinger et exprime son souhait de devenir plus tard médecin. Grâce au grand soutien de ses parents, il étudie la radiographie à l'institut Guido Holzknecht (en) et au Kaiser Franz Joseph-Ambulatorium und Jubiläumsspital en même temps. À l'école, il participe à des activités politiques, rejoint les scouts à 14 ans puis la Jeunesse communiste d'Autriche et le Parti communiste d'Autriche. Après l'occupation et l'annexion de l'Autriche par l'Allemagne nazie lors de l'Anschluss de 1938, il est expulsé de ces écoles. De peur d'être arrêté par la Gestapo, il interrompt ses études de médecine fin 1938, quitte l'Autriche et arrive finalement en Chine début 1939. Sur place, il participe à la seconde guerre sino-japonaise en 1941 dans le camp chinois, combat sur la ligne de front à la frontière entre le Shanxi, le Cháhāěr et le Hebei, change son nom de Stein en Frey et rejoint l'armée de la 8e route. En 1942, il demande à devenir membre du Parti communiste chinois et est accepté en 1944.
 Tandis qu'il exerce l'activité de médecin sur le front, il s'occupe de former des apprentis docteurs. Malgré un manque de médicaments en 1943, il parvient à contenir une épidémie de malaria chez les soldats avec l'aide de l'acupuncture et est décoré pour cela par Mao Zedong. En 1945, il réussit à synthétiser de la pénicilline pour la première fois en Chine, malgré de rudes conditions de travail, à Yan'an – la base militaire et politique du Parti communiste.
@@ -546,7 +560,9 @@
           <t>Commémoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 16 novembre 2004, Richard Frey meurt à 84 ans à Pékin. Le président chinois Hu Jintao et le président autrichien Heinz Fischer déposent ensemble une gerbe d'honneur. Selon ses dernières volontés, son corps est donné à la science.
 Le 21 février 2006, le collège Döblinger installe une plaque en sa mémoire dont le texte est écrit par le président autrichien. Le 23 juillet 2007, le gouvernement chinois érige un monument en son honneur près de Pékin là où il a autrefois combattu pour la Chine. Sa première femme est également enterrée le même jour à Vienne.
